--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Igf2-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Igf2-Insr.xlsx
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Igf2</t>
+  </si>
+  <si>
+    <t>Insr</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Igf2</t>
-  </si>
-  <si>
-    <t>Insr</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.659724333333333</v>
+        <v>7.314932333333334</v>
       </c>
       <c r="H2">
-        <v>16.979173</v>
+        <v>21.944797</v>
       </c>
       <c r="I2">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="J2">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N2">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O2">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P2">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q2">
-        <v>72.38975891153632</v>
+        <v>93.63338686582534</v>
       </c>
       <c r="R2">
-        <v>651.507830203827</v>
+        <v>842.7004817924281</v>
       </c>
       <c r="S2">
-        <v>0.007182567912572797</v>
+        <v>0.1279294720710272</v>
       </c>
       <c r="T2">
-        <v>0.007182567912572797</v>
+        <v>0.1279294720710272</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.659724333333333</v>
+        <v>7.314932333333334</v>
       </c>
       <c r="H3">
-        <v>16.979173</v>
+        <v>21.944797</v>
       </c>
       <c r="I3">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="J3">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N3">
         <v>10.886688</v>
       </c>
       <c r="O3">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P3">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q3">
-        <v>20.538550994336</v>
+        <v>26.545128684704</v>
       </c>
       <c r="R3">
-        <v>184.846958949024</v>
+        <v>238.906158162336</v>
       </c>
       <c r="S3">
-        <v>0.002037850927545341</v>
+        <v>0.03626809210221053</v>
       </c>
       <c r="T3">
-        <v>0.00203785092754534</v>
+        <v>0.03626809210221053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.659724333333333</v>
+        <v>7.314932333333334</v>
       </c>
       <c r="H4">
-        <v>16.979173</v>
+        <v>21.944797</v>
       </c>
       <c r="I4">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="J4">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N4">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O4">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P4">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q4">
-        <v>38.82449774565933</v>
+        <v>40.38427111093434</v>
       </c>
       <c r="R4">
-        <v>349.420479710934</v>
+        <v>363.4584399984091</v>
       </c>
       <c r="S4">
-        <v>0.003852196718468245</v>
+        <v>0.05517624274980375</v>
       </c>
       <c r="T4">
-        <v>0.003852196718468245</v>
+        <v>0.05517624274980375</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.659724333333333</v>
+        <v>7.314932333333334</v>
       </c>
       <c r="H5">
-        <v>16.979173</v>
+        <v>21.944797</v>
       </c>
       <c r="I5">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="J5">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N5">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O5">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P5">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q5">
-        <v>47.26805936738067</v>
+        <v>21.25022710677456</v>
       </c>
       <c r="R5">
-        <v>425.412534306426</v>
+        <v>191.252043960971</v>
       </c>
       <c r="S5">
-        <v>0.004689973438323324</v>
+        <v>0.02903377124502286</v>
       </c>
       <c r="T5">
-        <v>0.004689973438323323</v>
+        <v>0.02903377124502286</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.659724333333333</v>
+        <v>7.314932333333334</v>
       </c>
       <c r="H6">
-        <v>16.979173</v>
+        <v>21.944797</v>
       </c>
       <c r="I6">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="J6">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N6">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O6">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P6">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q6">
-        <v>90.15332819949121</v>
+        <v>147.7135691512818</v>
       </c>
       <c r="R6">
-        <v>811.379953795421</v>
+        <v>1329.422122361536</v>
       </c>
       <c r="S6">
-        <v>0.008945083007233453</v>
+        <v>0.2018181714000107</v>
       </c>
       <c r="T6">
-        <v>0.008945083007233453</v>
+        <v>0.2018181714000107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.659724333333333</v>
+        <v>7.314932333333334</v>
       </c>
       <c r="H7">
-        <v>16.979173</v>
+        <v>21.944797</v>
       </c>
       <c r="I7">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="J7">
-        <v>0.03283999818647846</v>
+        <v>0.5012540489572929</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N7">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O7">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P7">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q7">
-        <v>61.80486134062088</v>
+        <v>37.348332799834</v>
       </c>
       <c r="R7">
-        <v>556.2437520655878</v>
+        <v>336.134995198506</v>
       </c>
       <c r="S7">
-        <v>0.006132326182335303</v>
+        <v>0.05102829938921784</v>
       </c>
       <c r="T7">
-        <v>0.006132326182335301</v>
+        <v>0.05102829938921784</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3.645556</v>
       </c>
       <c r="I8">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271388</v>
       </c>
       <c r="J8">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271389</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N8">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O8">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P8">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q8">
-        <v>15.54262507004933</v>
+        <v>15.55474654374934</v>
       </c>
       <c r="R8">
-        <v>139.883625630444</v>
+        <v>139.992718893744</v>
       </c>
       <c r="S8">
-        <v>0.001542151290235822</v>
+        <v>0.02125214712559727</v>
       </c>
       <c r="T8">
-        <v>0.001542151290235822</v>
+        <v>0.02125214712559727</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3.645556</v>
       </c>
       <c r="I9">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271388</v>
       </c>
       <c r="J9">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271389</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N9">
         <v>10.886688</v>
       </c>
       <c r="O9">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P9">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q9">
-        <v>4.409781195392001</v>
+        <v>4.409781195391999</v>
       </c>
       <c r="R9">
-        <v>39.68803075852801</v>
+        <v>39.688030758528</v>
       </c>
       <c r="S9">
-        <v>0.0004375419036026361</v>
+        <v>0.006024998124692892</v>
       </c>
       <c r="T9">
-        <v>0.0004375419036026361</v>
+        <v>0.006024998124692892</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3.645556</v>
       </c>
       <c r="I10">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271388</v>
       </c>
       <c r="J10">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271389</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N10">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O10">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P10">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q10">
-        <v>8.335911337005333</v>
+        <v>6.708793973081334</v>
       </c>
       <c r="R10">
-        <v>75.02320203304799</v>
+        <v>60.379145757732</v>
       </c>
       <c r="S10">
-        <v>0.0008270955752787383</v>
+        <v>0.00916609448763657</v>
       </c>
       <c r="T10">
-        <v>0.0008270955752787383</v>
+        <v>0.009166094487636571</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3.645556</v>
       </c>
       <c r="I11">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271388</v>
       </c>
       <c r="J11">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271389</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N11">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O11">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P11">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q11">
-        <v>10.14880744987467</v>
+        <v>3.530171317167556</v>
       </c>
       <c r="R11">
-        <v>91.33926704887202</v>
+        <v>31.771541854508</v>
       </c>
       <c r="S11">
-        <v>0.001006972530871805</v>
+        <v>0.004823204286871305</v>
       </c>
       <c r="T11">
-        <v>0.001006972530871805</v>
+        <v>0.004823204286871306</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>3.645556</v>
       </c>
       <c r="I12">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271388</v>
       </c>
       <c r="J12">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271389</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N12">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O12">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P12">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q12">
-        <v>19.35659684589022</v>
+        <v>24.53875915556977</v>
       </c>
       <c r="R12">
-        <v>174.209371613012</v>
+        <v>220.848832400128</v>
       </c>
       <c r="S12">
-        <v>0.00192057652204368</v>
+        <v>0.03352682850774774</v>
       </c>
       <c r="T12">
-        <v>0.00192057652204368</v>
+        <v>0.03352682850774775</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>3.645556</v>
       </c>
       <c r="I13">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271388</v>
       </c>
       <c r="J13">
-        <v>0.007050994322792145</v>
+        <v>0.08327029435271389</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N13">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O13">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P13">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q13">
-        <v>13.26996804199289</v>
+        <v>6.204451958632</v>
       </c>
       <c r="R13">
-        <v>119.429712377936</v>
+        <v>55.840067627688</v>
       </c>
       <c r="S13">
-        <v>0.001316656500759463</v>
+        <v>0.008477021820168098</v>
       </c>
       <c r="T13">
-        <v>0.001316656500759463</v>
+        <v>0.008477021820168098</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.148871</v>
+        <v>0.005929666666666666</v>
       </c>
       <c r="H14">
-        <v>0.446613</v>
+        <v>0.017789</v>
       </c>
       <c r="I14">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="J14">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N14">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O14">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P14">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q14">
-        <v>1.904109664043</v>
+        <v>0.07590155967066667</v>
       </c>
       <c r="R14">
-        <v>17.136986976387</v>
+        <v>0.683114037036</v>
       </c>
       <c r="S14">
-        <v>0.0001889272347444646</v>
+        <v>0.0001037028220708309</v>
       </c>
       <c r="T14">
-        <v>0.0001889272347444646</v>
+        <v>0.0001037028220708309</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.148871</v>
+        <v>0.005929666666666666</v>
       </c>
       <c r="H15">
-        <v>0.446613</v>
+        <v>0.017789</v>
       </c>
       <c r="I15">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="J15">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N15">
         <v>10.886688</v>
       </c>
       <c r="O15">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P15">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q15">
-        <v>0.5402373764160001</v>
+        <v>0.021518143648</v>
       </c>
       <c r="R15">
-        <v>4.862136387744001</v>
+        <v>0.193663292832</v>
       </c>
       <c r="S15">
-        <v>5.360277065931346E-05</v>
+        <v>2.939982039506782E-05</v>
       </c>
       <c r="T15">
-        <v>5.360277065931346E-05</v>
+        <v>2.939982039506782E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.148871</v>
+        <v>0.005929666666666666</v>
       </c>
       <c r="H16">
-        <v>0.446613</v>
+        <v>0.017789</v>
       </c>
       <c r="I16">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="J16">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N16">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O16">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P16">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q16">
-        <v>1.021223201606</v>
+        <v>0.03273649780366666</v>
       </c>
       <c r="R16">
-        <v>9.191008814454001</v>
+        <v>0.294628480233</v>
       </c>
       <c r="S16">
-        <v>0.0001013265565422567</v>
+        <v>4.472723909345157E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001013265565422567</v>
+        <v>4.472723909345157E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.148871</v>
+        <v>0.005929666666666666</v>
       </c>
       <c r="H17">
-        <v>0.446613</v>
+        <v>0.017789</v>
       </c>
       <c r="I17">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="J17">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N17">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O17">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P17">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q17">
-        <v>1.243319082634</v>
+        <v>0.01722596431411111</v>
       </c>
       <c r="R17">
-        <v>11.189871743706</v>
+        <v>0.155033678827</v>
       </c>
       <c r="S17">
-        <v>0.0001233630817714087</v>
+        <v>2.353549940232811E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001233630817714087</v>
+        <v>2.353549940232811E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.148871</v>
+        <v>0.005929666666666666</v>
       </c>
       <c r="H18">
-        <v>0.446613</v>
+        <v>0.017789</v>
       </c>
       <c r="I18">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="J18">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N18">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O18">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P18">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q18">
-        <v>2.371355092922333</v>
+        <v>0.1197403048035555</v>
       </c>
       <c r="R18">
-        <v>21.342195836301</v>
+        <v>1.077662743232</v>
       </c>
       <c r="S18">
-        <v>0.0002352876878696951</v>
+        <v>0.0001635988453679836</v>
       </c>
       <c r="T18">
-        <v>0.0002352876878696951</v>
+        <v>0.0001635988453679836</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.148871</v>
+        <v>0.005929666666666666</v>
       </c>
       <c r="H19">
-        <v>0.446613</v>
+        <v>0.017789</v>
       </c>
       <c r="I19">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="J19">
-        <v>0.0008638094511468671</v>
+        <v>0.0004063290390383325</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N19">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O19">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P19">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q19">
-        <v>1.625688986025333</v>
+        <v>0.030275490458</v>
       </c>
       <c r="R19">
-        <v>14.631200874228</v>
+        <v>0.272479414122</v>
       </c>
       <c r="S19">
-        <v>0.0001613021195597287</v>
+        <v>4.136481270867058E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001613021195597286</v>
+        <v>4.136481270867058E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>164.091384</v>
+        <v>5.935154999999999</v>
       </c>
       <c r="H20">
-        <v>492.2741520000001</v>
+        <v>17.805465</v>
       </c>
       <c r="I20">
-        <v>0.9521242441507738</v>
+        <v>0.406705125812618</v>
       </c>
       <c r="J20">
-        <v>0.9521242441507737</v>
+        <v>0.4067051258126181</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N20">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O20">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P20">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q20">
-        <v>2098.783443790872</v>
+        <v>75.97181202774</v>
       </c>
       <c r="R20">
-        <v>18889.05099411785</v>
+        <v>683.7463082496599</v>
       </c>
       <c r="S20">
-        <v>0.2082429178584955</v>
+        <v>0.1037988064974651</v>
       </c>
       <c r="T20">
-        <v>0.2082429178584955</v>
+        <v>0.1037988064974651</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>164.091384</v>
+        <v>5.935154999999999</v>
       </c>
       <c r="H21">
-        <v>492.2741520000001</v>
+        <v>17.805465</v>
       </c>
       <c r="I21">
-        <v>0.9521242441507738</v>
+        <v>0.406705125812618</v>
       </c>
       <c r="J21">
-        <v>0.9521242441507737</v>
+        <v>0.4067051258126181</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N21">
         <v>10.886688</v>
       </c>
       <c r="O21">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P21">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q21">
-        <v>595.4705670320642</v>
+        <v>21.53806023888</v>
       </c>
       <c r="R21">
-        <v>5359.235103288577</v>
+        <v>193.84254214992</v>
       </c>
       <c r="S21">
-        <v>0.0590830505855495</v>
+        <v>0.02942703204512149</v>
       </c>
       <c r="T21">
-        <v>0.05908305058554949</v>
+        <v>0.02942703204512149</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>164.091384</v>
+        <v>5.935154999999999</v>
       </c>
       <c r="H22">
-        <v>492.2741520000001</v>
+        <v>17.805465</v>
       </c>
       <c r="I22">
-        <v>0.9521242441507738</v>
+        <v>0.406705125812618</v>
       </c>
       <c r="J22">
-        <v>0.9521242441507737</v>
+        <v>0.4067051258126181</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N22">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O22">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P22">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q22">
-        <v>1125.631778683824</v>
+        <v>32.766797788845</v>
       </c>
       <c r="R22">
-        <v>10130.68600815442</v>
+        <v>294.901180099605</v>
       </c>
       <c r="S22">
-        <v>0.111686056377489</v>
+        <v>0.04476863737281936</v>
       </c>
       <c r="T22">
-        <v>0.1116860563774889</v>
+        <v>0.04476863737281937</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>164.091384</v>
+        <v>5.935154999999999</v>
       </c>
       <c r="H23">
-        <v>492.2741520000001</v>
+        <v>17.805465</v>
       </c>
       <c r="I23">
-        <v>0.9521242441507738</v>
+        <v>0.406705125812618</v>
       </c>
       <c r="J23">
-        <v>0.9521242441507737</v>
+        <v>0.4067051258126181</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N23">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O23">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P23">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q23">
-        <v>1370.434463549137</v>
+        <v>17.241908184055</v>
       </c>
       <c r="R23">
-        <v>12333.91017194223</v>
+        <v>155.177173656495</v>
       </c>
       <c r="S23">
-        <v>0.1359755682596048</v>
+        <v>0.02355728320117342</v>
       </c>
       <c r="T23">
-        <v>0.1359755682596048</v>
+        <v>0.02355728320117342</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>164.091384</v>
+        <v>5.935154999999999</v>
       </c>
       <c r="H24">
-        <v>492.2741520000001</v>
+        <v>17.805465</v>
       </c>
       <c r="I24">
-        <v>0.9521242441507738</v>
+        <v>0.406705125812618</v>
       </c>
       <c r="J24">
-        <v>0.9521242441507737</v>
+        <v>0.4067051258126181</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N24">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O24">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P24">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q24">
-        <v>2613.799458276456</v>
+        <v>119.85113307488</v>
       </c>
       <c r="R24">
-        <v>23524.19512448811</v>
+        <v>1078.66019767392</v>
       </c>
       <c r="S24">
-        <v>0.259343205464451</v>
+        <v>0.1637502678756559</v>
       </c>
       <c r="T24">
-        <v>0.2593432054644509</v>
+        <v>0.1637502678756559</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>164.091384</v>
+        <v>5.935154999999999</v>
       </c>
       <c r="H25">
-        <v>492.2741520000001</v>
+        <v>17.805465</v>
       </c>
       <c r="I25">
-        <v>0.9521242441507738</v>
+        <v>0.406705125812618</v>
       </c>
       <c r="J25">
-        <v>0.9521242441507737</v>
+        <v>0.4067051258126181</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N25">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O25">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P25">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q25">
-        <v>1791.897385457568</v>
+        <v>30.30351260373</v>
       </c>
       <c r="R25">
-        <v>16127.07646911811</v>
+        <v>272.73161343357</v>
       </c>
       <c r="S25">
-        <v>0.177793445605184</v>
+        <v>0.04140309882038277</v>
       </c>
       <c r="T25">
-        <v>0.177793445605184</v>
+        <v>0.04140309882038277</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.227242333333334</v>
+        <v>0.122061</v>
       </c>
       <c r="H26">
-        <v>3.681727</v>
+        <v>0.366183</v>
       </c>
       <c r="I26">
-        <v>0.007120953888808884</v>
+        <v>0.00836420183833682</v>
       </c>
       <c r="J26">
-        <v>0.007120953888808883</v>
+        <v>0.008364201838336822</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N26">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O26">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P26">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q26">
-        <v>15.69683811503034</v>
+        <v>1.562418394788</v>
       </c>
       <c r="R26">
-        <v>141.271543035273</v>
+        <v>14.061765553092</v>
       </c>
       <c r="S26">
-        <v>0.00155745242792761</v>
+        <v>0.002134701809790491</v>
       </c>
       <c r="T26">
-        <v>0.001557452427927609</v>
+        <v>0.002134701809790492</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>1.227242333333334</v>
+        <v>0.122061</v>
       </c>
       <c r="H27">
-        <v>3.681727</v>
+        <v>0.366183</v>
       </c>
       <c r="I27">
-        <v>0.007120953888808884</v>
+        <v>0.00836420183833682</v>
       </c>
       <c r="J27">
-        <v>0.007120953888808883</v>
+        <v>0.008364201838336822</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N27">
         <v>10.886688</v>
       </c>
       <c r="O27">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P27">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q27">
-        <v>4.453534794464002</v>
+        <v>0.4429466746559999</v>
       </c>
       <c r="R27">
-        <v>40.08181315017601</v>
+        <v>3.986520071904</v>
       </c>
       <c r="S27">
-        <v>0.0004418831695700802</v>
+        <v>0.0006051894109689762</v>
       </c>
       <c r="T27">
-        <v>0.00044188316957008</v>
+        <v>0.0006051894109689763</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>1.227242333333334</v>
+        <v>0.122061</v>
       </c>
       <c r="H28">
-        <v>3.681727</v>
+        <v>0.366183</v>
       </c>
       <c r="I28">
-        <v>0.007120953888808884</v>
+        <v>0.00836420183833682</v>
       </c>
       <c r="J28">
-        <v>0.007120953888808883</v>
+        <v>0.008364201838336822</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N28">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O28">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P28">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q28">
-        <v>8.418619776807335</v>
+        <v>0.673874246739</v>
       </c>
       <c r="R28">
-        <v>75.76757799126601</v>
+        <v>6.064868220651</v>
       </c>
       <c r="S28">
-        <v>0.0008353019706964491</v>
+        <v>0.0009207012531877775</v>
       </c>
       <c r="T28">
-        <v>0.0008353019706964489</v>
+        <v>0.0009207012531877777</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>1.227242333333334</v>
+        <v>0.122061</v>
       </c>
       <c r="H29">
-        <v>3.681727</v>
+        <v>0.366183</v>
       </c>
       <c r="I29">
-        <v>0.007120953888808884</v>
+        <v>0.00836420183833682</v>
       </c>
       <c r="J29">
-        <v>0.007120953888808883</v>
+        <v>0.008364201838336822</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N29">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O29">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P29">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q29">
-        <v>10.24950334215267</v>
+        <v>0.354593023241</v>
       </c>
       <c r="R29">
-        <v>92.24553007937402</v>
+        <v>3.191337209169</v>
       </c>
       <c r="S29">
-        <v>0.001016963655247392</v>
+        <v>0.0004844735385711795</v>
       </c>
       <c r="T29">
-        <v>0.001016963655247391</v>
+        <v>0.0004844735385711796</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,25 +2270,25 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>1.227242333333334</v>
+        <v>0.122061</v>
       </c>
       <c r="H30">
-        <v>3.681727</v>
+        <v>0.366183</v>
       </c>
       <c r="I30">
-        <v>0.007120953888808884</v>
+        <v>0.00836420183833682</v>
       </c>
       <c r="J30">
-        <v>0.007120953888808883</v>
+        <v>0.008364201838336822</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N30">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O30">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P30">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q30">
-        <v>19.54865190265323</v>
+        <v>2.464830177855999</v>
       </c>
       <c r="R30">
-        <v>175.937867123879</v>
+        <v>22.183471600704</v>
       </c>
       <c r="S30">
-        <v>0.001939632373436127</v>
+        <v>0.003367649445915134</v>
       </c>
       <c r="T30">
-        <v>0.001939632373436127</v>
+        <v>0.003367649445915135</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,25 +2332,25 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>1.227242333333334</v>
+        <v>0.122061</v>
       </c>
       <c r="H31">
-        <v>3.681727</v>
+        <v>0.366183</v>
       </c>
       <c r="I31">
-        <v>0.007120953888808884</v>
+        <v>0.00836420183833682</v>
       </c>
       <c r="J31">
-        <v>0.007120953888808883</v>
+        <v>0.008364201838336822</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N31">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O31">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P31">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q31">
-        <v>13.40163191275689</v>
+        <v>0.623214903726</v>
       </c>
       <c r="R31">
-        <v>120.614687214812</v>
+        <v>5.608934133533999</v>
       </c>
       <c r="S31">
-        <v>0.001329720291931227</v>
+        <v>0.0008514863799032614</v>
       </c>
       <c r="T31">
-        <v>0.001329720291931227</v>
+        <v>0.0008514863799032616</v>
       </c>
     </row>
   </sheetData>
